--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1783908196033299</v>
+        <v>0.2147957804815247</v>
       </c>
       <c r="C2">
-        <v>0.3606156554386025</v>
+        <v>0.3580819848962541</v>
       </c>
       <c r="D2">
-        <v>0.2599511937740667</v>
+        <v>0.2088379301833887</v>
       </c>
       <c r="E2">
-        <v>0.5098540906711122</v>
+        <v>0.4569878884427777</v>
       </c>
       <c r="F2">
-        <v>0.4943913024279584</v>
+        <v>0.4185882721160311</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2147957804815247</v>
+        <v>0.245473867636748</v>
       </c>
       <c r="C3">
-        <v>0.3580819848962541</v>
+        <v>0.3683843928281823</v>
       </c>
       <c r="D3">
-        <v>0.2088379301833887</v>
+        <v>0.2358514199634523</v>
       </c>
       <c r="E3">
-        <v>0.4569878884427777</v>
+        <v>0.4856453644002507</v>
       </c>
       <c r="F3">
-        <v>0.4185882721160311</v>
+        <v>0.4361500127557235</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.245473867636748</v>
+        <v>0.301463903713677</v>
       </c>
       <c r="C4">
-        <v>0.3683843928281823</v>
+        <v>0.3567050099425655</v>
       </c>
       <c r="D4">
-        <v>0.2358514199634523</v>
+        <v>0.2583510523008795</v>
       </c>
       <c r="E4">
-        <v>0.4856453644002507</v>
+        <v>0.5082824532687308</v>
       </c>
       <c r="F4">
-        <v>0.4361500127557235</v>
+        <v>0.4274285484895888</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.301463903713677</v>
+        <v>0.2900334324511264</v>
       </c>
       <c r="C5">
-        <v>0.3567050099425655</v>
+        <v>0.3439303588265401</v>
       </c>
       <c r="D5">
-        <v>0.2583510523008795</v>
+        <v>0.1874043702602189</v>
       </c>
       <c r="E5">
-        <v>0.5082824532687308</v>
+        <v>0.4329022640968963</v>
       </c>
       <c r="F5">
-        <v>0.4274285484895888</v>
+        <v>0.3370659818980856</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2900334324511264</v>
+        <v>0.2833661826906564</v>
       </c>
       <c r="C6">
-        <v>0.3439303588265401</v>
+        <v>0.2909807410604855</v>
       </c>
       <c r="D6">
-        <v>0.1874043702602189</v>
+        <v>0.2099604875429734</v>
       </c>
       <c r="E6">
-        <v>0.4329022640968963</v>
+        <v>0.4582144558424291</v>
       </c>
       <c r="F6">
-        <v>0.3370659818980856</v>
+        <v>0.3795671424286398</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2833661826906564</v>
+        <v>0.3070978867771534</v>
       </c>
       <c r="C7">
-        <v>0.2909807410604855</v>
+        <v>0.3733636115588901</v>
       </c>
       <c r="D7">
-        <v>0.2099604875429734</v>
+        <v>0.2272551859511885</v>
       </c>
       <c r="E7">
-        <v>0.4582144558424291</v>
+        <v>0.476712896774556</v>
       </c>
       <c r="F7">
-        <v>0.3795671424286398</v>
+        <v>0.3867354821117653</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3070978867771534</v>
+        <v>0.3125739411747067</v>
       </c>
       <c r="C8">
-        <v>0.3733636115588901</v>
+        <v>0.4101416856701894</v>
       </c>
       <c r="D8">
-        <v>0.2272551859511885</v>
+        <v>0.3161064439746084</v>
       </c>
       <c r="E8">
-        <v>0.476712896774556</v>
+        <v>0.5622334425971194</v>
       </c>
       <c r="F8">
-        <v>0.3867354821117653</v>
+        <v>0.499604386659364</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4818104178965973</v>
+        <v>0.2627214152773011</v>
       </c>
       <c r="C9">
-        <v>0.4818104178965973</v>
+        <v>0.3235434349789264</v>
       </c>
       <c r="D9">
-        <v>0.4086707003526728</v>
+        <v>0.1669924024756296</v>
       </c>
       <c r="E9">
-        <v>0.6392735723871845</v>
+        <v>0.4086470389904099</v>
       </c>
       <c r="F9">
-        <v>0.4602556961850388</v>
+        <v>0.3380801243818421</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2297780799482224</v>
+        <v>0.3023013051968123</v>
       </c>
       <c r="C10">
-        <v>0.2410916961729521</v>
+        <v>0.3856149542229345</v>
       </c>
       <c r="D10">
-        <v>0.09195223546803079</v>
+        <v>0.3827274330185637</v>
       </c>
       <c r="E10">
-        <v>0.303236270040427</v>
+        <v>0.618649685216572</v>
       </c>
       <c r="F10">
-        <v>0.2423456295562365</v>
+        <v>0.5912779588939882</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2888921154092369</v>
+        <v>0.302435154479656</v>
       </c>
       <c r="C11">
-        <v>0.2888921154092369</v>
+        <v>0.4668197381621303</v>
       </c>
       <c r="D11">
-        <v>0.08345865434562384</v>
+        <v>0.3675323742590614</v>
       </c>
       <c r="E11">
-        <v>0.2888921154092369</v>
+        <v>0.6062444838999044</v>
+      </c>
+      <c r="F11">
+        <v>0.5874365408215683</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2147957804815247</v>
+        <v>0.1783908196033299</v>
       </c>
       <c r="C2">
-        <v>0.3580819848962541</v>
+        <v>0.3606156554386025</v>
       </c>
       <c r="D2">
-        <v>0.2088379301833887</v>
+        <v>0.2599511937740667</v>
       </c>
       <c r="E2">
-        <v>0.4569878884427777</v>
+        <v>0.5098540906711122</v>
       </c>
       <c r="F2">
-        <v>0.4185882721160311</v>
+        <v>0.4943913024279584</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.245473867636748</v>
+        <v>0.2147957804815247</v>
       </c>
       <c r="C3">
-        <v>0.3683843928281823</v>
+        <v>0.3580819848962541</v>
       </c>
       <c r="D3">
-        <v>0.2358514199634523</v>
+        <v>0.2088379301833887</v>
       </c>
       <c r="E3">
-        <v>0.4856453644002507</v>
+        <v>0.4569878884427777</v>
       </c>
       <c r="F3">
-        <v>0.4361500127557235</v>
+        <v>0.4185882721160311</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.301463903713677</v>
+        <v>0.245473867636748</v>
       </c>
       <c r="C4">
-        <v>0.3567050099425655</v>
+        <v>0.3683843928281823</v>
       </c>
       <c r="D4">
-        <v>0.2583510523008795</v>
+        <v>0.2358514199634523</v>
       </c>
       <c r="E4">
-        <v>0.5082824532687308</v>
+        <v>0.4856453644002507</v>
       </c>
       <c r="F4">
-        <v>0.4274285484895888</v>
+        <v>0.4361500127557235</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2900334324511264</v>
+        <v>0.301463903713677</v>
       </c>
       <c r="C5">
-        <v>0.3439303588265401</v>
+        <v>0.3567050099425655</v>
       </c>
       <c r="D5">
-        <v>0.1874043702602189</v>
+        <v>0.2583510523008795</v>
       </c>
       <c r="E5">
-        <v>0.4329022640968963</v>
+        <v>0.5082824532687308</v>
       </c>
       <c r="F5">
-        <v>0.3370659818980856</v>
+        <v>0.4274285484895888</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2833661826906564</v>
+        <v>0.2900334324511264</v>
       </c>
       <c r="C6">
-        <v>0.2909807410604855</v>
+        <v>0.3439303588265401</v>
       </c>
       <c r="D6">
-        <v>0.2099604875429734</v>
+        <v>0.1874043702602189</v>
       </c>
       <c r="E6">
-        <v>0.4582144558424291</v>
+        <v>0.4329022640968963</v>
       </c>
       <c r="F6">
-        <v>0.3795671424286398</v>
+        <v>0.3370659818980856</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3070978867771534</v>
+        <v>0.2833661826906564</v>
       </c>
       <c r="C7">
-        <v>0.3733636115588901</v>
+        <v>0.2909807410604855</v>
       </c>
       <c r="D7">
-        <v>0.2272551859511885</v>
+        <v>0.2099604875429734</v>
       </c>
       <c r="E7">
-        <v>0.476712896774556</v>
+        <v>0.4582144558424291</v>
       </c>
       <c r="F7">
-        <v>0.3867354821117653</v>
+        <v>0.3795671424286398</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3125739411747067</v>
+        <v>0.3070978867771534</v>
       </c>
       <c r="C8">
-        <v>0.4101416856701894</v>
+        <v>0.3733636115588901</v>
       </c>
       <c r="D8">
-        <v>0.3161064439746084</v>
+        <v>0.2272551859511885</v>
       </c>
       <c r="E8">
-        <v>0.5622334425971194</v>
+        <v>0.476712896774556</v>
       </c>
       <c r="F8">
-        <v>0.499604386659364</v>
+        <v>0.3867354821117653</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2627214152773011</v>
+        <v>0.3125739411747067</v>
       </c>
       <c r="C9">
-        <v>0.3235434349789264</v>
+        <v>0.4101416856701894</v>
       </c>
       <c r="D9">
-        <v>0.1669924024756296</v>
+        <v>0.3161064439746084</v>
       </c>
       <c r="E9">
-        <v>0.4086470389904099</v>
+        <v>0.5622334425971194</v>
       </c>
       <c r="F9">
-        <v>0.3380801243818421</v>
+        <v>0.499604386659364</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3023013051968123</v>
+        <v>0.2627214152773011</v>
       </c>
       <c r="C10">
-        <v>0.3856149542229345</v>
+        <v>0.3235434349789264</v>
       </c>
       <c r="D10">
-        <v>0.3827274330185637</v>
+        <v>0.1669924024756296</v>
       </c>
       <c r="E10">
-        <v>0.618649685216572</v>
+        <v>0.4086470389904099</v>
       </c>
       <c r="F10">
-        <v>0.5912779588939882</v>
+        <v>0.3380801243818421</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.302435154479656</v>
+        <v>0.3023013051968123</v>
       </c>
       <c r="C11">
-        <v>0.4668197381621303</v>
+        <v>0.3856149542229345</v>
       </c>
       <c r="D11">
-        <v>0.3675323742590614</v>
+        <v>0.3827274330185637</v>
       </c>
       <c r="E11">
-        <v>0.6062444838999044</v>
+        <v>0.618649685216572</v>
       </c>
       <c r="F11">
-        <v>0.5874365408215683</v>
+        <v>0.5912779588939882</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3125739411747067</v>
+        <v>0.4818104178965973</v>
       </c>
       <c r="C9">
-        <v>0.4101416856701894</v>
+        <v>0.4818104178965973</v>
       </c>
       <c r="D9">
-        <v>0.3161064439746084</v>
+        <v>0.4086707003526728</v>
       </c>
       <c r="E9">
-        <v>0.5622334425971194</v>
+        <v>0.6392735723871845</v>
       </c>
       <c r="F9">
-        <v>0.499604386659364</v>
+        <v>0.4602556961850388</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2627214152773011</v>
+        <v>0.2297780799482224</v>
       </c>
       <c r="C10">
-        <v>0.3235434349789264</v>
+        <v>0.2410916961729521</v>
       </c>
       <c r="D10">
-        <v>0.1669924024756296</v>
+        <v>0.09195223546803079</v>
       </c>
       <c r="E10">
-        <v>0.4086470389904099</v>
+        <v>0.303236270040427</v>
       </c>
       <c r="F10">
-        <v>0.3380801243818421</v>
+        <v>0.2423456295562365</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3023013051968123</v>
+        <v>0.2888921154092369</v>
       </c>
       <c r="C11">
-        <v>0.3856149542229345</v>
+        <v>0.2888921154092369</v>
       </c>
       <c r="D11">
-        <v>0.3827274330185637</v>
+        <v>0.08345865434562384</v>
       </c>
       <c r="E11">
-        <v>0.618649685216572</v>
-      </c>
-      <c r="F11">
-        <v>0.5912779588939882</v>
+        <v>0.2888921154092369</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
